--- a/biology/Histoire de la zoologie et de la botanique/Frederick_McMahon_Gaige/Frederick_McMahon_Gaige.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_McMahon_Gaige/Frederick_McMahon_Gaige.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick McMahon Gaige est un entomologiste américain, né le 3 juillet 1890 à Ann Arbor et mort le 20 octobre 1976 à Keystone Heights (Floride).
 Diplômé en 1913 à l’université du Michigan, il devient conservateur des insectes au musée de zoologie de l’université et étudie principalement l’écologie et la taxinomie des Formicidae. Il prend, en 1928, la direction du musée.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph R. Bailey (1977). Helen Thompson Gaige. Frederick McMahon Gaige. 1890-1976, Copeia, 1977 (3) : 609-611.  (ISSN 0045-8511)
  Gaige  est l’abréviation habituelle de Frederick McMahon Gaige en zoologie.
